--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34598.77857185265</v>
+        <v>6821955.224221909</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34598.77857185265</v>
+        <v>6821955.224221909</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386448231</v>
+        <v>834735.0396486438</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386448231</v>
+        <v>834735.0396486438</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037703094.113812</v>
+        <v>44091178.22321092</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10743.95073507032</v>
+        <v>1229958.889754951</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19194.90002764593</v>
+        <v>2080038.391979452</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27645.84932022154</v>
+        <v>2930117.894203955</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36436.39744643133</v>
+        <v>3739401.580773463</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45313.86093715625</v>
+        <v>4561199.250905922</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53984.2186875707</v>
+        <v>5423468.502307829</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62536.82065148211</v>
+        <v>6273288.028144823</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71089.42261539347</v>
+        <v>7123107.553981883</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79794.59171474744</v>
+        <v>7938522.610414916</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88552.85404112859</v>
+        <v>8764597.131588379</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97312.06021234878</v>
+        <v>9590671.652761707</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106070.7944611497</v>
+        <v>10416746.17393506</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114829.5287099515</v>
+        <v>11242820.69510821</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123588.2629587526</v>
+        <v>12068895.21628162</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132346.9972075553</v>
+        <v>12894969.7374546</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1.139072806549458e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
